--- a/weather_impact_interactive.xlsx
+++ b/weather_impact_interactive.xlsx
@@ -428,10 +428,10 @@
         <v>Nedbør 2025</v>
       </c>
       <c r="I1" t="str">
-        <v>Sne 2026</v>
+        <v>Snedybde 2026 (cm)</v>
       </c>
       <c r="J1" t="str">
-        <v>Sne 2025</v>
+        <v>Snedybde 2025 (cm)</v>
       </c>
       <c r="K1" t="str">
         <v>Impact</v>
